--- a/data/scratch/whiRain.xlsx
+++ b/data/scratch/whiRain.xlsx
@@ -874,15 +874,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1734"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1435" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G1459" sqref="G1439:G1459"/>
+    <sheetView tabSelected="1" topLeftCell="A1363" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H1132" sqref="H1132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10401,6 +10401,9 @@
       <c r="D655">
         <v>1E-3</v>
       </c>
+      <c r="E655">
+        <v>3201</v>
+      </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
@@ -10415,6 +10418,9 @@
       <c r="D656">
         <v>1E-3</v>
       </c>
+      <c r="E656">
+        <v>3201</v>
+      </c>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
@@ -10429,6 +10435,9 @@
       <c r="D657">
         <v>1E-3</v>
       </c>
+      <c r="E657">
+        <v>3201</v>
+      </c>
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
@@ -10443,21 +10452,24 @@
       <c r="D658">
         <v>1E-3</v>
       </c>
+      <c r="E658">
+        <v>3201</v>
+      </c>
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A659" t="s">
-        <v>4</v>
-      </c>
-      <c r="B659">
-        <v>2018</v>
-      </c>
-      <c r="C659" s="1">
+      <c r="A659" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B659" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C659" s="3">
         <v>43223.888888888891</v>
       </c>
-      <c r="D659">
+      <c r="D659" s="2">
         <v>0</v>
       </c>
-      <c r="E659">
+      <c r="E659" s="2">
         <v>3201</v>
       </c>
     </row>
@@ -15508,6 +15520,9 @@
       <c r="D974">
         <v>1E-3</v>
       </c>
+      <c r="E974">
+        <v>3211</v>
+      </c>
     </row>
     <row r="975" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
@@ -15522,6 +15537,9 @@
       <c r="D975">
         <v>2E-3</v>
       </c>
+      <c r="E975">
+        <v>3211</v>
+      </c>
     </row>
     <row r="976" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
@@ -15536,6 +15554,9 @@
       <c r="D976">
         <v>2E-3</v>
       </c>
+      <c r="E976">
+        <v>3211</v>
+      </c>
     </row>
     <row r="977" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A977" t="s">
@@ -15550,6 +15571,9 @@
       <c r="D977">
         <v>1E-3</v>
       </c>
+      <c r="E977">
+        <v>3211</v>
+      </c>
     </row>
     <row r="978" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A978" t="s">
@@ -15564,6 +15588,9 @@
       <c r="D978">
         <v>1E-3</v>
       </c>
+      <c r="E978">
+        <v>3211</v>
+      </c>
     </row>
     <row r="979" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A979" t="s">
@@ -15578,6 +15605,9 @@
       <c r="D979">
         <v>1E-3</v>
       </c>
+      <c r="E979">
+        <v>3211</v>
+      </c>
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A980" t="s">
@@ -15592,6 +15622,9 @@
       <c r="D980">
         <v>1E-3</v>
       </c>
+      <c r="E980">
+        <v>3211</v>
+      </c>
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A981" t="s">
@@ -15605,6 +15638,9 @@
       </c>
       <c r="D981">
         <v>1E-3</v>
+      </c>
+      <c r="E981">
+        <v>3211</v>
       </c>
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/scratch/whiRain.xlsx
+++ b/data/scratch/whiRain.xlsx
@@ -61,6 +61,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -544,13 +547,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -874,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1734"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1363" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H1132" sqref="H1132"/>
+    <sheetView tabSelected="1" topLeftCell="A1733" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D1120" sqref="D1120:D1144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,6 +888,7 @@
     <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -11798,6 +11803,7 @@
       <c r="D739">
         <v>1E-3</v>
       </c>
+      <c r="E739" s="6"/>
       <c r="G739">
         <v>2</v>
       </c>
